--- a/Classification of codes.xlsx
+++ b/Classification of codes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arty/FirewallInterfaces/supplementary material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arty/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Classification of codes" sheetId="5" r:id="rId1"/>
@@ -275,9 +275,6 @@
     <t>User-friendliness</t>
   </si>
   <si>
-    <t>Good for now &amp; then++</t>
-  </si>
-  <si>
     <t>Reporting</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>Flexibility</t>
+  </si>
+  <si>
+    <t>Good for occasional use++</t>
   </si>
 </sst>
 </file>
@@ -867,19 +867,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1084,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1140,7 +1139,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1209,7 +1207,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1229,14 +1226,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1354,7 +1348,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1374,14 +1367,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1401,9 +1391,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1591,11 +1579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="1885212368"/>
-        <c:axId val="1885045760"/>
+        <c:axId val="-1127501648"/>
+        <c:axId val="-1125186848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1885212368"/>
+        <c:axId val="-1127501648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1592,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885045760"/>
+        <c:crossAx val="-1125186848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1612,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1885045760"/>
+        <c:axId val="-1125186848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1646,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1718,7 +1705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885212368"/>
+        <c:crossAx val="-1127501648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2420,11 +2407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="1885006272"/>
-        <c:axId val="1884986384"/>
+        <c:axId val="-1084644976"/>
+        <c:axId val="-1084641952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1885006272"/>
+        <c:axId val="-1084644976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,7 +2421,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1884986384"/>
+        <c:crossAx val="-1084641952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2442,7 +2429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1884986384"/>
+        <c:axId val="-1084641952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,7 +2541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885006272"/>
+        <c:crossAx val="-1084644976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2676,7 +2663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2732,7 +2718,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2752,14 +2737,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2779,14 +2761,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2825,7 +2804,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3025,9 +3003,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3035,7 +3011,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.0245971053015874"/>
-                  <c:y val="-8.08578709374948E-17"/>
+                  <c:y val="-8.08578709374949E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3106,7 +3082,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3126,9 +3101,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3170,7 +3143,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3190,9 +3162,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3320,7 +3290,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3340,9 +3309,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3463,9 +3430,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3577,11 +3542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1953745936"/>
-        <c:axId val="1953751664"/>
+        <c:axId val="-1083490880"/>
+        <c:axId val="-1083487888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1953745936"/>
+        <c:axId val="-1083490880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3590,7 +3555,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1953751664"/>
+        <c:crossAx val="-1083487888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3598,7 +3563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1953751664"/>
+        <c:axId val="-1083487888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -3646,7 +3611,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3707,7 +3671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953745936"/>
+        <c:crossAx val="-1083490880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4019,7 +3983,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.015443335668087"/>
-                  <c:y val="-7.60304041273953E-17"/>
+                  <c:y val="-7.60304041273954E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4548,11 +4512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1879873856"/>
-        <c:axId val="1837798240"/>
+        <c:axId val="-1127409520"/>
+        <c:axId val="-1127406336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1879873856"/>
+        <c:axId val="-1127409520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,7 +4525,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1837798240"/>
+        <c:crossAx val="-1127406336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4569,7 +4533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1837798240"/>
+        <c:axId val="-1127406336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4680,7 +4644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1879873856"/>
+        <c:crossAx val="-1127409520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4774,7 +4738,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4874,7 +4837,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4894,9 +4856,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4938,7 +4898,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4958,14 +4917,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4997,7 +4953,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5029,7 +4984,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5049,14 +5003,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5132,7 +5083,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5164,7 +5114,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5196,7 +5145,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5228,7 +5176,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5248,9 +5195,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5353,11 +5298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="1963856576"/>
-        <c:axId val="1963217440"/>
+        <c:axId val="-1127323120"/>
+        <c:axId val="-1127320096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1963856576"/>
+        <c:axId val="-1127323120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5366,7 +5311,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1963217440"/>
+        <c:crossAx val="-1127320096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5374,7 +5319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1963217440"/>
+        <c:axId val="-1127320096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,7 +5365,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5481,7 +5425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963856576"/>
+        <c:crossAx val="-1127323120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5571,7 +5515,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5759,7 +5702,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5780,9 +5722,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5859,9 +5799,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5966,11 +5904,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="99"/>
-        <c:axId val="1963831120"/>
-        <c:axId val="1963815344"/>
+        <c:axId val="-1073710800"/>
+        <c:axId val="-1073707776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1963831120"/>
+        <c:axId val="-1073710800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5980,7 +5918,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="1963815344"/>
+        <c:crossAx val="-1073707776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5988,7 +5926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1963815344"/>
+        <c:axId val="-1073707776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6102,7 +6040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963831120"/>
+        <c:crossAx val="-1073710800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9930,8 +9868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D36" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9957,79 +9895,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="N1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="N1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
         <v>100</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>101</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
         <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" t="s">
-        <v>103</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -10068,7 +10006,7 @@
     </row>
     <row r="5" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="9">
         <f>SUM(C9:U9) +2</f>
@@ -10076,7 +10014,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -10085,7 +10023,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N5" t="s">
         <v>3</v>
@@ -10094,29 +10032,29 @@
         <v>4</v>
       </c>
       <c r="W5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="L6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s">
         <v>120</v>
-      </c>
-      <c r="N6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -10124,10 +10062,10 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="14"/>
+      <c r="A8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
         <f>D$9/$B$5</f>
@@ -10165,10 +10103,10 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>1</v>
@@ -10211,7 +10149,7 @@
     </row>
     <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="9">
         <f>SUM(C15:U15) + 2</f>
@@ -10228,7 +10166,7 @@
         <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -10246,34 +10184,34 @@
         <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="4"/>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -10282,14 +10220,14 @@
       </c>
       <c r="G13" s="4"/>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="14"/>
+      <c r="A14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -10336,10 +10274,10 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="11"/>
+      <c r="A15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -10390,10 +10328,10 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="7" t="s">
@@ -10403,7 +10341,7 @@
         <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -10415,37 +10353,37 @@
         <v>17</v>
       </c>
       <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="U17" t="s">
         <v>133</v>
-      </c>
-      <c r="U17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="9">
         <f>SUM(C23:U23)</f>
@@ -10460,10 +10398,10 @@
       </c>
     </row>
     <row r="20" spans="1:42" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -10482,7 +10420,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
@@ -10491,8 +10429,8 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -10500,10 +10438,10 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="14"/>
+      <c r="A22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="4">
         <f>C$23/$B$19*100</f>
         <v>3.4883720930232558</v>
@@ -10555,10 +10493,10 @@
       </c>
     </row>
     <row r="23" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="11"/>
+      <c r="A23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="3">
         <v>3</v>
       </c>
@@ -10614,10 +10552,10 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -10639,7 +10577,7 @@
         <v>38</v>
       </c>
       <c r="N25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s">
         <v>58</v>
@@ -10651,21 +10589,21 @@
         <v>27</v>
       </c>
       <c r="R25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T25" t="s">
         <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="9">
         <f>SUM(C37:U37) + 4+3</f>
@@ -10700,24 +10638,24 @@
         <v>23</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="L27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N27" t="s">
         <v>32</v>
@@ -10730,8 +10668,8 @@
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -10744,7 +10682,7 @@
         <v>8</v>
       </c>
       <c r="U28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
@@ -10778,7 +10716,7 @@
         <v>20</v>
       </c>
       <c r="AP32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.2">
@@ -10800,10 +10738,10 @@
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="14"/>
+      <c r="A36" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="11"/>
       <c r="C36" s="4">
         <f>C$37/$B$26*100</f>
         <v>6.5830721003134789</v>
@@ -10875,10 +10813,10 @@
       </c>
     </row>
     <row r="37" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="11"/>
+      <c r="A37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="3">
         <v>21</v>
       </c>
@@ -10942,13 +10880,13 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" t="s">
         <v>57</v>
@@ -10963,19 +10901,19 @@
         <v>66</v>
       </c>
       <c r="K39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" t="s">
         <v>64</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q39" t="s">
         <v>65</v>
@@ -10984,64 +10922,64 @@
         <v>74</v>
       </c>
       <c r="T39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U39" t="s">
         <v>68</v>
       </c>
       <c r="W39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q40" t="s">
         <v>72</v>
       </c>
       <c r="R40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I41" t="s">
         <v>69</v>
       </c>
       <c r="K41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N41" t="s">
         <v>73</v>
@@ -11050,10 +10988,10 @@
         <v>76</v>
       </c>
       <c r="U41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.2">
@@ -11063,10 +11001,10 @@
         <v>71</v>
       </c>
       <c r="N42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X42" s="1"/>
     </row>
@@ -11075,56 +11013,56 @@
         <v>70</v>
       </c>
       <c r="N43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X43" s="1"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N44" t="s">
         <v>75</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="9">
         <f>SUM(C$49:U49)+5+1+1+12+8+4+3</f>
         <v>406</v>
       </c>
       <c r="N45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="N46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="14"/>
+      <c r="A48" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="11"/>
       <c r="C48">
         <f>C$49/$B$45*100</f>
         <v>0.73891625615763545</v>
@@ -11195,10 +11133,10 @@
       </c>
     </row>
     <row r="49" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="11"/>
+      <c r="A49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="10"/>
       <c r="C49" s="3">
         <v>3</v>
       </c>
@@ -11265,13 +11203,13 @@
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="D51" t="s">
         <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
         <v>29</v>
@@ -11286,164 +11224,164 @@
         <v>79</v>
       </c>
       <c r="L51" t="s">
+        <v>168</v>
+      </c>
+      <c r="N51" t="s">
         <v>169</v>
-      </c>
-      <c r="N51" t="s">
-        <v>170</v>
       </c>
       <c r="O51" t="s">
         <v>22</v>
       </c>
       <c r="Q51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U52" t="s">
         <v>23</v>
       </c>
       <c r="W52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N53" t="s">
         <v>31</v>
       </c>
       <c r="U53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="H54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N54" t="s">
         <v>80</v>
       </c>
       <c r="U54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X54" s="1"/>
     </row>
     <row r="55" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" s="9">
         <f>SUM(C68:U68) + 6+3+2+2</f>
         <v>586</v>
       </c>
       <c r="I55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U55" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="12"/>
+      <c r="A56" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="13"/>
       <c r="N56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
       <c r="N57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AO61" t="s">
         <v>77</v>
       </c>
       <c r="AP61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO62">
         <f>I48+N48+D48+O48+W48+J48+Q48</f>
@@ -11456,29 +11394,29 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="N66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="14"/>
+      <c r="A67" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="11"/>
       <c r="D67">
         <f>D$68/$B$55*100</f>
         <v>7.3378839590443681</v>
@@ -11533,10 +11471,10 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68" s="11"/>
+      <c r="A68" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="10"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
         <f>29+13+1</f>
@@ -11591,11 +11529,21 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N1:U2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A6:B7"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A67:B67"/>
@@ -11608,16 +11556,6 @@
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="N1:U2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A6:B7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
